--- a/biology/Zoologie/Hollandse_nieuwe/Hollandse_nieuwe.xlsx
+++ b/biology/Zoologie/Hollandse_nieuwe/Hollandse_nieuwe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Hollandse nieuwe (littéralement « [hareng] nouveau hollandais »), appelé aussi maatje, est, aux Pays-Bas, le premier hareng de la saison prêt à être consommé.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1380, Willem Beukelszoon de Biervliet trouve une méthode de conservation des harengs. L'ouvrier vide le poisson à l'aide d'un couteau spécial en laissant en place le seul pancréas qui à ce moment est gros et sécrète des enzymes qui transforment la nourriture en graisse. Celui-ci continue à sécréter ces enzymes qui contribuent à préserver et à rendre plus goûteuse la chair du poisson. Avant d'être encaqués, les harengs sont ensuite salés, le sel aide à contrôler la maturation, plus de sel prolonge la maturation.
 Avant la surgélation, on employait beaucoup de sel. Les harengs étaient entassés dans des fûts de bois, les caques. Pour accommoder le goût des harengs, ils étaient accompagnés d'oignons hachés, parfois de lait pour neutraliser le sel.
@@ -546,7 +560,9 @@
           <t>Vlaggetjesdag</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Vlaggetjesdag ou « jour des Drapeaux », selon une ancienne tradition, marque la première pêche de la saison, à Schéveningue et Flardingue. Le capitaine du bateau qui ramenait le premier des harengs à terre, apportait personnellement une caisse à la reine.
 Le premier lot est mis aux enchères ouvertes à tous et les bénéfices vont à une bonne œuvre.
@@ -578,7 +594,9 @@
           <t>Cahier des charges</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un cahier des charges définit l'appellation Hollandse nieuwe :
 la proportion de graisse doit être au minimum de 16 % (limite légale) mais au maximum de 25 à 26 % (demande culinaire),
@@ -622,13 +640,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hareng frais
-Le hareng frais (verse ou groene haring) est salé à bord du bateau, il a peu mûri, le goût est frais et subtil mais il présente le risque important de transmettre l'anisakis, un parasite. De nos jours, les harengs doivent être surgelés au minimum 24 heures, la consommation du hareng véritablement frais est en fait illégale[réf. nécessaire].
-Hareng blanc
-Le hareng légèrement salé est appelé « hareng blanc ».
-Hareng salé, zure haring, rollmops
-Les harengs pêchés après la date limite, trop gras pour être appelés Hollandse nieuwe, sont appelés zoute haring ou harengs salés.
-Ces harengs peuvent être marinés au vinaigre (zure haring) ou utilisés en rollmops.
+          <t>Hareng frais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le hareng frais (verse ou groene haring) est salé à bord du bateau, il a peu mûri, le goût est frais et subtil mais il présente le risque important de transmettre l'anisakis, un parasite. De nos jours, les harengs doivent être surgelés au minimum 24 heures, la consommation du hareng véritablement frais est en fait illégale[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -654,10 +672,87 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Autres formes de consommation du hareng</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hareng blanc</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le hareng légèrement salé est appelé « hareng blanc ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hollandse_nieuwe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hollandse_nieuwe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Autres formes de consommation du hareng</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Hareng salé, zure haring, rollmops</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les harengs pêchés après la date limite, trop gras pour être appelés Hollandse nieuwe, sont appelés zoute haring ou harengs salés.
+Ces harengs peuvent être marinés au vinaigre (zure haring) ou utilisés en rollmops.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hollandse_nieuwe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hollandse_nieuwe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">(nl) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en néerlandais intitulé « Hollandse Nieuwe » (voir la liste des auteurs).
  Portail des Pays-Bas   Alimentation et gastronomie   Portail de l’ichtyologie                   </t>
